--- a/030-試験/032-結合試験計画書兼結果書.xlsx
+++ b/030-試験/032-結合試験計画書兼結果書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Disstrg\個人\戦略本部\ay.nagata\デスクトップ\ECサイトpro\04-テスト計画書フェーズ\02,Integration Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EA494A-EEDE-4F52-BE38-39B3DA4C707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3066527A-C425-4241-AE1D-3DA037943BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A6033112-71BA-4037-88EF-FEBDF2F3FF10}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>システムID</t>
     <phoneticPr fontId="11"/>
@@ -282,6 +282,21 @@
     <t>確認者</t>
     <rPh sb="0" eb="3">
       <t>カクニンシャ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>2024/10/23</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>永田</t>
+    <rPh sb="0" eb="2">
+      <t>ナガタ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -290,8 +305,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="180" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -698,7 +714,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -816,133 +832,143 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1260,12 +1286,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9721C090-9857-46D0-AFF6-32952212E220}">
-  <dimension ref="A1:BU33"/>
+  <dimension ref="A1:BV33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="CP6" sqref="CP6"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" sqref="A1:X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
@@ -1274,146 +1300,146 @@
     <col min="71" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:74" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
+      <c r="A1" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="85" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86"/>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="85" t="s">
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="74"/>
+      <c r="AG1" s="74"/>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="74"/>
+      <c r="AJ1" s="74"/>
+      <c r="AK1" s="74"/>
+      <c r="AL1" s="74"/>
+      <c r="AM1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="AN1" s="85"/>
-      <c r="AO1" s="85"/>
-      <c r="AP1" s="85"/>
-      <c r="AQ1" s="67">
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="73"/>
+      <c r="AQ1" s="83">
         <v>45573</v>
       </c>
-      <c r="AR1" s="67"/>
-      <c r="AS1" s="67"/>
-      <c r="AT1" s="67"/>
-      <c r="AU1" s="67"/>
-      <c r="AV1" s="67"/>
-      <c r="AW1" s="67"/>
-      <c r="AX1" s="67"/>
-      <c r="AY1" s="67"/>
-      <c r="AZ1" s="67"/>
-      <c r="BA1" s="68" t="s">
+      <c r="AR1" s="83"/>
+      <c r="AS1" s="83"/>
+      <c r="AT1" s="83"/>
+      <c r="AU1" s="83"/>
+      <c r="AV1" s="83"/>
+      <c r="AW1" s="83"/>
+      <c r="AX1" s="83"/>
+      <c r="AY1" s="83"/>
+      <c r="AZ1" s="83"/>
+      <c r="BA1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="BB1" s="69"/>
-      <c r="BC1" s="59"/>
-      <c r="BD1" s="60"/>
-      <c r="BE1" s="60"/>
-      <c r="BF1" s="61"/>
+      <c r="BB1" s="85"/>
+      <c r="BC1" s="75"/>
+      <c r="BD1" s="76"/>
+      <c r="BE1" s="76"/>
+      <c r="BF1" s="77"/>
     </row>
-    <row r="2" spans="1:73" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="65" t="s">
+    <row r="2" spans="1:74" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="71"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="66" t="s">
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="81"/>
+      <c r="AB2" s="81"/>
+      <c r="AC2" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="65" t="s">
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="82"/>
+      <c r="AG2" s="82"/>
+      <c r="AH2" s="82"/>
+      <c r="AI2" s="82"/>
+      <c r="AJ2" s="82"/>
+      <c r="AK2" s="82"/>
+      <c r="AL2" s="82"/>
+      <c r="AM2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="66" t="s">
+      <c r="AN2" s="81"/>
+      <c r="AO2" s="81"/>
+      <c r="AP2" s="81"/>
+      <c r="AQ2" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="66"/>
-      <c r="AV2" s="66"/>
-      <c r="AW2" s="66"/>
-      <c r="AX2" s="66"/>
-      <c r="AY2" s="66"/>
-      <c r="AZ2" s="66"/>
-      <c r="BA2" s="70"/>
-      <c r="BB2" s="71"/>
-      <c r="BC2" s="62"/>
-      <c r="BD2" s="63"/>
-      <c r="BE2" s="63"/>
-      <c r="BF2" s="64"/>
+      <c r="AR2" s="82"/>
+      <c r="AS2" s="82"/>
+      <c r="AT2" s="82"/>
+      <c r="AU2" s="82"/>
+      <c r="AV2" s="82"/>
+      <c r="AW2" s="82"/>
+      <c r="AX2" s="82"/>
+      <c r="AY2" s="82"/>
+      <c r="AZ2" s="82"/>
+      <c r="BA2" s="86"/>
+      <c r="BB2" s="87"/>
+      <c r="BC2" s="78"/>
+      <c r="BD2" s="79"/>
+      <c r="BE2" s="79"/>
+      <c r="BF2" s="80"/>
     </row>
-    <row r="3" spans="1:73" ht="10.199999999999999" customHeight="1" thickTop="1"/>
-    <row r="4" spans="1:73" ht="10.5" customHeight="1">
+    <row r="3" spans="1:74" ht="10.199999999999999" customHeight="1" thickTop="1"/>
+    <row r="4" spans="1:74" ht="10.5" customHeight="1">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
@@ -1473,181 +1499,183 @@
       <c r="BE4" s="24"/>
       <c r="BF4" s="24"/>
     </row>
-    <row r="5" spans="1:73" s="23" customFormat="1" ht="12">
-      <c r="A5" s="72" t="s">
+    <row r="5" spans="1:74" s="23" customFormat="1" ht="12">
+      <c r="A5" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="73" t="s">
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="56" t="s">
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="57"/>
-      <c r="Y5" s="57"/>
-      <c r="Z5" s="57"/>
-      <c r="AA5" s="57"/>
-      <c r="AB5" s="57"/>
-      <c r="AC5" s="57"/>
-      <c r="AD5" s="58"/>
-      <c r="AE5" s="73" t="s">
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="92"/>
+      <c r="T5" s="92"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="92"/>
+      <c r="X5" s="92"/>
+      <c r="Y5" s="92"/>
+      <c r="Z5" s="92"/>
+      <c r="AA5" s="92"/>
+      <c r="AB5" s="92"/>
+      <c r="AC5" s="92"/>
+      <c r="AD5" s="93"/>
+      <c r="AE5" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="AF5" s="74"/>
-      <c r="AG5" s="74"/>
-      <c r="AH5" s="74"/>
-      <c r="AI5" s="74"/>
-      <c r="AJ5" s="74"/>
-      <c r="AK5" s="74"/>
-      <c r="AL5" s="74"/>
-      <c r="AM5" s="74"/>
-      <c r="AN5" s="74"/>
-      <c r="AO5" s="74"/>
-      <c r="AP5" s="74"/>
-      <c r="AQ5" s="74"/>
-      <c r="AR5" s="75"/>
-      <c r="AS5" s="49" t="s">
+      <c r="AF5" s="62"/>
+      <c r="AG5" s="62"/>
+      <c r="AH5" s="62"/>
+      <c r="AI5" s="62"/>
+      <c r="AJ5" s="62"/>
+      <c r="AK5" s="62"/>
+      <c r="AL5" s="62"/>
+      <c r="AM5" s="62"/>
+      <c r="AN5" s="62"/>
+      <c r="AO5" s="62"/>
+      <c r="AP5" s="62"/>
+      <c r="AQ5" s="62"/>
+      <c r="AR5" s="63"/>
+      <c r="AS5" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="50"/>
-      <c r="AV5" s="50"/>
-      <c r="AW5" s="50"/>
-      <c r="AX5" s="50"/>
-      <c r="AY5" s="50"/>
-      <c r="AZ5" s="50"/>
-      <c r="BA5" s="50"/>
-      <c r="BB5" s="50"/>
-      <c r="BC5" s="50"/>
-      <c r="BD5" s="50"/>
-      <c r="BE5" s="50"/>
-      <c r="BF5" s="51"/>
-      <c r="BG5" s="49" t="s">
+      <c r="AT5" s="54"/>
+      <c r="AU5" s="54"/>
+      <c r="AV5" s="54"/>
+      <c r="AW5" s="54"/>
+      <c r="AX5" s="54"/>
+      <c r="AY5" s="54"/>
+      <c r="AZ5" s="54"/>
+      <c r="BA5" s="54"/>
+      <c r="BB5" s="54"/>
+      <c r="BC5" s="54"/>
+      <c r="BD5" s="54"/>
+      <c r="BE5" s="54"/>
+      <c r="BF5" s="55"/>
+      <c r="BG5" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="BH5" s="50"/>
-      <c r="BI5" s="51"/>
-      <c r="BJ5" s="49" t="s">
+      <c r="BH5" s="54"/>
+      <c r="BI5" s="55"/>
+      <c r="BJ5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="BK5" s="50"/>
-      <c r="BL5" s="50"/>
-      <c r="BM5" s="51"/>
-      <c r="BN5" s="49" t="s">
+      <c r="BK5" s="54"/>
+      <c r="BL5" s="54"/>
+      <c r="BM5" s="54"/>
+      <c r="BN5" s="55"/>
+      <c r="BO5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="BO5" s="50"/>
-      <c r="BP5" s="50"/>
-      <c r="BQ5" s="51"/>
-      <c r="BR5" s="49" t="s">
+      <c r="BP5" s="54"/>
+      <c r="BQ5" s="54"/>
+      <c r="BR5" s="55"/>
+      <c r="BS5" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="BS5" s="50"/>
-      <c r="BT5" s="50"/>
-      <c r="BU5" s="51"/>
+      <c r="BT5" s="54"/>
+      <c r="BU5" s="54"/>
+      <c r="BV5" s="55"/>
     </row>
-    <row r="6" spans="1:73" s="23" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A6" s="55"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="55" t="s">
+    <row r="6" spans="1:74" s="23" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="56" t="s">
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="57"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="58"/>
-      <c r="Y6" s="56" t="s">
+      <c r="T6" s="92"/>
+      <c r="U6" s="92"/>
+      <c r="V6" s="92"/>
+      <c r="W6" s="92"/>
+      <c r="X6" s="93"/>
+      <c r="Y6" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="Z6" s="57"/>
-      <c r="AA6" s="57"/>
-      <c r="AB6" s="57"/>
-      <c r="AC6" s="57"/>
-      <c r="AD6" s="58"/>
-      <c r="AE6" s="76"/>
-      <c r="AF6" s="77"/>
-      <c r="AG6" s="77"/>
-      <c r="AH6" s="77"/>
-      <c r="AI6" s="77"/>
-      <c r="AJ6" s="77"/>
-      <c r="AK6" s="77"/>
-      <c r="AL6" s="77"/>
-      <c r="AM6" s="77"/>
-      <c r="AN6" s="77"/>
-      <c r="AO6" s="77"/>
-      <c r="AP6" s="77"/>
-      <c r="AQ6" s="77"/>
-      <c r="AR6" s="78"/>
-      <c r="AS6" s="52"/>
-      <c r="AT6" s="53"/>
-      <c r="AU6" s="53"/>
-      <c r="AV6" s="53"/>
-      <c r="AW6" s="53"/>
-      <c r="AX6" s="53"/>
-      <c r="AY6" s="53"/>
-      <c r="AZ6" s="53"/>
-      <c r="BA6" s="53"/>
-      <c r="BB6" s="53"/>
-      <c r="BC6" s="53"/>
-      <c r="BD6" s="53"/>
-      <c r="BE6" s="53"/>
-      <c r="BF6" s="54"/>
-      <c r="BG6" s="52"/>
-      <c r="BH6" s="53"/>
-      <c r="BI6" s="54"/>
-      <c r="BJ6" s="52"/>
-      <c r="BK6" s="53"/>
-      <c r="BL6" s="53"/>
-      <c r="BM6" s="54"/>
-      <c r="BN6" s="52"/>
-      <c r="BO6" s="53"/>
-      <c r="BP6" s="53"/>
-      <c r="BQ6" s="54"/>
-      <c r="BR6" s="88"/>
-      <c r="BS6" s="89"/>
-      <c r="BT6" s="89"/>
-      <c r="BU6" s="90"/>
+      <c r="Z6" s="92"/>
+      <c r="AA6" s="92"/>
+      <c r="AB6" s="92"/>
+      <c r="AC6" s="92"/>
+      <c r="AD6" s="93"/>
+      <c r="AE6" s="64"/>
+      <c r="AF6" s="65"/>
+      <c r="AG6" s="65"/>
+      <c r="AH6" s="65"/>
+      <c r="AI6" s="65"/>
+      <c r="AJ6" s="65"/>
+      <c r="AK6" s="65"/>
+      <c r="AL6" s="65"/>
+      <c r="AM6" s="65"/>
+      <c r="AN6" s="65"/>
+      <c r="AO6" s="65"/>
+      <c r="AP6" s="65"/>
+      <c r="AQ6" s="65"/>
+      <c r="AR6" s="66"/>
+      <c r="AS6" s="88"/>
+      <c r="AT6" s="89"/>
+      <c r="AU6" s="89"/>
+      <c r="AV6" s="89"/>
+      <c r="AW6" s="89"/>
+      <c r="AX6" s="89"/>
+      <c r="AY6" s="89"/>
+      <c r="AZ6" s="89"/>
+      <c r="BA6" s="89"/>
+      <c r="BB6" s="89"/>
+      <c r="BC6" s="89"/>
+      <c r="BD6" s="89"/>
+      <c r="BE6" s="89"/>
+      <c r="BF6" s="90"/>
+      <c r="BG6" s="88"/>
+      <c r="BH6" s="89"/>
+      <c r="BI6" s="90"/>
+      <c r="BJ6" s="88"/>
+      <c r="BK6" s="89"/>
+      <c r="BL6" s="89"/>
+      <c r="BM6" s="89"/>
+      <c r="BN6" s="90"/>
+      <c r="BO6" s="88"/>
+      <c r="BP6" s="89"/>
+      <c r="BQ6" s="89"/>
+      <c r="BR6" s="90"/>
+      <c r="BS6" s="56"/>
+      <c r="BT6" s="57"/>
+      <c r="BU6" s="57"/>
+      <c r="BV6" s="58"/>
     </row>
-    <row r="7" spans="1:73" ht="10.5" customHeight="1">
+    <row r="7" spans="1:74" ht="10.5" customHeight="1">
       <c r="A7" s="26" t="s">
         <v>17</v>
       </c>
@@ -1720,23 +1748,30 @@
       <c r="BD7" s="19"/>
       <c r="BE7" s="18"/>
       <c r="BF7" s="17"/>
-      <c r="BG7" s="39"/>
+      <c r="BG7" s="39" t="s">
+        <v>32</v>
+      </c>
       <c r="BH7" s="40"/>
       <c r="BI7" s="40"/>
-      <c r="BJ7" s="18"/>
-      <c r="BK7" s="17"/>
-      <c r="BL7" s="17"/>
-      <c r="BM7" s="16"/>
-      <c r="BN7" s="18"/>
-      <c r="BO7" s="17"/>
+      <c r="BJ7" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="BK7" s="94"/>
+      <c r="BL7" s="94"/>
+      <c r="BM7" s="94"/>
+      <c r="BN7" s="95"/>
+      <c r="BO7" s="18" t="s">
+        <v>34</v>
+      </c>
       <c r="BP7" s="17"/>
-      <c r="BQ7" s="16"/>
-      <c r="BR7" s="29"/>
-      <c r="BS7" s="45"/>
+      <c r="BQ7" s="17"/>
+      <c r="BR7" s="16"/>
+      <c r="BS7" s="29"/>
       <c r="BT7" s="45"/>
-      <c r="BU7" s="87"/>
+      <c r="BU7" s="45"/>
+      <c r="BV7" s="49"/>
     </row>
-    <row r="8" spans="1:73" ht="10.5" customHeight="1">
+    <row r="8" spans="1:74" ht="10.5" customHeight="1">
       <c r="A8" s="27"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -1801,17 +1836,18 @@
       <c r="BJ8" s="11"/>
       <c r="BK8" s="10"/>
       <c r="BL8" s="10"/>
-      <c r="BM8" s="9"/>
-      <c r="BN8" s="11"/>
-      <c r="BO8" s="10"/>
+      <c r="BM8" s="10"/>
+      <c r="BN8" s="9"/>
+      <c r="BO8" s="11"/>
       <c r="BP8" s="10"/>
-      <c r="BQ8" s="9"/>
-      <c r="BR8" s="29"/>
-      <c r="BS8" s="45"/>
+      <c r="BQ8" s="10"/>
+      <c r="BR8" s="9"/>
+      <c r="BS8" s="29"/>
       <c r="BT8" s="45"/>
-      <c r="BU8" s="87"/>
+      <c r="BU8" s="45"/>
+      <c r="BV8" s="49"/>
     </row>
-    <row r="9" spans="1:73" ht="10.5" customHeight="1">
+    <row r="9" spans="1:74" ht="10.5" customHeight="1">
       <c r="A9" s="27"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -1876,17 +1912,18 @@
       <c r="BJ9" s="11"/>
       <c r="BK9" s="10"/>
       <c r="BL9" s="10"/>
-      <c r="BM9" s="9"/>
-      <c r="BN9" s="11"/>
-      <c r="BO9" s="10"/>
+      <c r="BM9" s="10"/>
+      <c r="BN9" s="9"/>
+      <c r="BO9" s="11"/>
       <c r="BP9" s="10"/>
-      <c r="BQ9" s="9"/>
-      <c r="BR9" s="29"/>
-      <c r="BS9" s="45"/>
+      <c r="BQ9" s="10"/>
+      <c r="BR9" s="9"/>
+      <c r="BS9" s="29"/>
       <c r="BT9" s="45"/>
-      <c r="BU9" s="87"/>
+      <c r="BU9" s="45"/>
+      <c r="BV9" s="49"/>
     </row>
-    <row r="10" spans="1:73" ht="10.5" customHeight="1">
+    <row r="10" spans="1:74" ht="10.5" customHeight="1">
       <c r="A10" s="27"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -1951,17 +1988,18 @@
       <c r="BJ10" s="11"/>
       <c r="BK10" s="10"/>
       <c r="BL10" s="10"/>
-      <c r="BM10" s="9"/>
-      <c r="BN10" s="11"/>
-      <c r="BO10" s="10"/>
+      <c r="BM10" s="10"/>
+      <c r="BN10" s="9"/>
+      <c r="BO10" s="11"/>
       <c r="BP10" s="10"/>
-      <c r="BQ10" s="9"/>
-      <c r="BR10" s="29"/>
-      <c r="BS10" s="45"/>
+      <c r="BQ10" s="10"/>
+      <c r="BR10" s="9"/>
+      <c r="BS10" s="29"/>
       <c r="BT10" s="45"/>
-      <c r="BU10" s="87"/>
+      <c r="BU10" s="45"/>
+      <c r="BV10" s="49"/>
     </row>
-    <row r="11" spans="1:73" ht="10.5" customHeight="1">
+    <row r="11" spans="1:74" ht="10.5" customHeight="1">
       <c r="A11" s="27"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -2026,17 +2064,18 @@
       <c r="BJ11" s="11"/>
       <c r="BK11" s="10"/>
       <c r="BL11" s="10"/>
-      <c r="BM11" s="9"/>
-      <c r="BN11" s="11"/>
-      <c r="BO11" s="10"/>
+      <c r="BM11" s="10"/>
+      <c r="BN11" s="9"/>
+      <c r="BO11" s="11"/>
       <c r="BP11" s="10"/>
-      <c r="BQ11" s="9"/>
-      <c r="BR11" s="29"/>
-      <c r="BS11" s="45"/>
+      <c r="BQ11" s="10"/>
+      <c r="BR11" s="9"/>
+      <c r="BS11" s="29"/>
       <c r="BT11" s="45"/>
-      <c r="BU11" s="87"/>
+      <c r="BU11" s="45"/>
+      <c r="BV11" s="49"/>
     </row>
-    <row r="12" spans="1:73" ht="10.5" customHeight="1">
+    <row r="12" spans="1:74" ht="10.5" customHeight="1">
       <c r="A12" s="27"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -2101,17 +2140,18 @@
       <c r="BJ12" s="11"/>
       <c r="BK12" s="10"/>
       <c r="BL12" s="10"/>
-      <c r="BM12" s="9"/>
-      <c r="BN12" s="11"/>
-      <c r="BO12" s="10"/>
+      <c r="BM12" s="10"/>
+      <c r="BN12" s="9"/>
+      <c r="BO12" s="11"/>
       <c r="BP12" s="10"/>
-      <c r="BQ12" s="9"/>
-      <c r="BR12" s="29"/>
-      <c r="BS12" s="45"/>
+      <c r="BQ12" s="10"/>
+      <c r="BR12" s="9"/>
+      <c r="BS12" s="29"/>
       <c r="BT12" s="45"/>
-      <c r="BU12" s="87"/>
+      <c r="BU12" s="45"/>
+      <c r="BV12" s="49"/>
     </row>
-    <row r="13" spans="1:73" ht="10.5" customHeight="1">
+    <row r="13" spans="1:74" ht="10.5" customHeight="1">
       <c r="A13" s="27"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -2176,17 +2216,18 @@
       <c r="BJ13" s="11"/>
       <c r="BK13" s="10"/>
       <c r="BL13" s="10"/>
-      <c r="BM13" s="9"/>
-      <c r="BN13" s="11"/>
-      <c r="BO13" s="10"/>
+      <c r="BM13" s="10"/>
+      <c r="BN13" s="9"/>
+      <c r="BO13" s="11"/>
       <c r="BP13" s="10"/>
-      <c r="BQ13" s="9"/>
-      <c r="BR13" s="29"/>
-      <c r="BS13" s="45"/>
+      <c r="BQ13" s="10"/>
+      <c r="BR13" s="9"/>
+      <c r="BS13" s="29"/>
       <c r="BT13" s="45"/>
-      <c r="BU13" s="87"/>
+      <c r="BU13" s="45"/>
+      <c r="BV13" s="49"/>
     </row>
-    <row r="14" spans="1:73" ht="10.5" customHeight="1">
+    <row r="14" spans="1:74" ht="10.5" customHeight="1">
       <c r="A14" s="27"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -2251,17 +2292,18 @@
       <c r="BJ14" s="11"/>
       <c r="BK14" s="10"/>
       <c r="BL14" s="10"/>
-      <c r="BM14" s="9"/>
-      <c r="BN14" s="11"/>
-      <c r="BO14" s="10"/>
+      <c r="BM14" s="10"/>
+      <c r="BN14" s="9"/>
+      <c r="BO14" s="11"/>
       <c r="BP14" s="10"/>
-      <c r="BQ14" s="9"/>
-      <c r="BR14" s="29"/>
-      <c r="BS14" s="45"/>
+      <c r="BQ14" s="10"/>
+      <c r="BR14" s="9"/>
+      <c r="BS14" s="29"/>
       <c r="BT14" s="45"/>
-      <c r="BU14" s="87"/>
+      <c r="BU14" s="45"/>
+      <c r="BV14" s="49"/>
     </row>
-    <row r="15" spans="1:73" ht="10.199999999999999" customHeight="1">
+    <row r="15" spans="1:74" ht="10.199999999999999" customHeight="1">
       <c r="A15" s="28"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -2326,17 +2368,18 @@
       <c r="BJ15" s="4"/>
       <c r="BK15" s="3"/>
       <c r="BL15" s="3"/>
-      <c r="BM15" s="2"/>
-      <c r="BN15" s="4"/>
-      <c r="BO15" s="3"/>
+      <c r="BM15" s="3"/>
+      <c r="BN15" s="2"/>
+      <c r="BO15" s="4"/>
       <c r="BP15" s="3"/>
-      <c r="BQ15" s="2"/>
-      <c r="BR15" s="91"/>
-      <c r="BS15" s="92"/>
-      <c r="BT15" s="92"/>
-      <c r="BU15" s="93"/>
+      <c r="BQ15" s="3"/>
+      <c r="BR15" s="2"/>
+      <c r="BS15" s="50"/>
+      <c r="BT15" s="51"/>
+      <c r="BU15" s="51"/>
+      <c r="BV15" s="52"/>
     </row>
-    <row r="16" spans="1:73" s="33" customFormat="1" ht="10.5" customHeight="1">
+    <row r="16" spans="1:74" s="33" customFormat="1" ht="10.5" customHeight="1">
       <c r="A16" s="26" t="s">
         <v>18</v>
       </c>
@@ -2409,23 +2452,30 @@
       <c r="BD16" s="31"/>
       <c r="BE16" s="17"/>
       <c r="BF16" s="32"/>
-      <c r="BG16" s="30"/>
+      <c r="BG16" s="30" t="s">
+        <v>32</v>
+      </c>
       <c r="BH16" s="31"/>
       <c r="BI16" s="31"/>
-      <c r="BJ16" s="30"/>
+      <c r="BJ16" s="97" t="s">
+        <v>33</v>
+      </c>
       <c r="BK16" s="31"/>
       <c r="BL16" s="31"/>
-      <c r="BM16" s="32"/>
-      <c r="BN16" s="30"/>
-      <c r="BO16" s="31"/>
+      <c r="BM16" s="31"/>
+      <c r="BN16" s="32"/>
+      <c r="BO16" s="30" t="s">
+        <v>34</v>
+      </c>
       <c r="BP16" s="31"/>
-      <c r="BQ16" s="32"/>
-      <c r="BR16" s="34"/>
-      <c r="BS16" s="48"/>
+      <c r="BQ16" s="31"/>
+      <c r="BR16" s="32"/>
+      <c r="BS16" s="34"/>
       <c r="BT16" s="48"/>
-      <c r="BU16" s="35"/>
+      <c r="BU16" s="48"/>
+      <c r="BV16" s="35"/>
     </row>
-    <row r="17" spans="1:73" s="33" customFormat="1" ht="10.5" customHeight="1">
+    <row r="17" spans="1:74" s="33" customFormat="1" ht="10.5" customHeight="1">
       <c r="A17" s="27"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -2446,15 +2496,15 @@
       <c r="BF17" s="35"/>
       <c r="BG17" s="34"/>
       <c r="BJ17" s="34"/>
-      <c r="BM17" s="35"/>
-      <c r="BN17" s="34"/>
-      <c r="BQ17" s="35"/>
-      <c r="BR17" s="34"/>
-      <c r="BS17" s="48"/>
+      <c r="BN17" s="35"/>
+      <c r="BO17" s="34"/>
+      <c r="BR17" s="35"/>
+      <c r="BS17" s="34"/>
       <c r="BT17" s="48"/>
-      <c r="BU17" s="35"/>
+      <c r="BU17" s="48"/>
+      <c r="BV17" s="35"/>
     </row>
-    <row r="18" spans="1:73" s="33" customFormat="1" ht="10.5" customHeight="1">
+    <row r="18" spans="1:74" s="33" customFormat="1" ht="10.5" customHeight="1">
       <c r="A18" s="27"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -2475,15 +2525,15 @@
       <c r="BF18" s="35"/>
       <c r="BG18" s="34"/>
       <c r="BJ18" s="34"/>
-      <c r="BM18" s="35"/>
-      <c r="BN18" s="34"/>
-      <c r="BQ18" s="35"/>
-      <c r="BR18" s="34"/>
-      <c r="BS18" s="48"/>
+      <c r="BN18" s="35"/>
+      <c r="BO18" s="34"/>
+      <c r="BR18" s="35"/>
+      <c r="BS18" s="34"/>
       <c r="BT18" s="48"/>
-      <c r="BU18" s="35"/>
+      <c r="BU18" s="48"/>
+      <c r="BV18" s="35"/>
     </row>
-    <row r="19" spans="1:73" s="33" customFormat="1" ht="10.5" customHeight="1">
+    <row r="19" spans="1:74" s="33" customFormat="1" ht="10.5" customHeight="1">
       <c r="A19" s="27"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -2504,15 +2554,15 @@
       <c r="BF19" s="35"/>
       <c r="BG19" s="34"/>
       <c r="BJ19" s="34"/>
-      <c r="BM19" s="35"/>
-      <c r="BN19" s="34"/>
-      <c r="BQ19" s="35"/>
-      <c r="BR19" s="34"/>
-      <c r="BS19" s="48"/>
+      <c r="BN19" s="35"/>
+      <c r="BO19" s="34"/>
+      <c r="BR19" s="35"/>
+      <c r="BS19" s="34"/>
       <c r="BT19" s="48"/>
-      <c r="BU19" s="35"/>
+      <c r="BU19" s="48"/>
+      <c r="BV19" s="35"/>
     </row>
-    <row r="20" spans="1:73" s="33" customFormat="1" ht="10.5" customHeight="1">
+    <row r="20" spans="1:74" s="33" customFormat="1" ht="10.5" customHeight="1">
       <c r="A20" s="27"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -2533,15 +2583,15 @@
       <c r="BF20" s="35"/>
       <c r="BG20" s="34"/>
       <c r="BJ20" s="34"/>
-      <c r="BM20" s="35"/>
-      <c r="BN20" s="34"/>
-      <c r="BQ20" s="35"/>
-      <c r="BR20" s="34"/>
-      <c r="BS20" s="48"/>
+      <c r="BN20" s="35"/>
+      <c r="BO20" s="34"/>
+      <c r="BR20" s="35"/>
+      <c r="BS20" s="34"/>
       <c r="BT20" s="48"/>
-      <c r="BU20" s="35"/>
+      <c r="BU20" s="48"/>
+      <c r="BV20" s="35"/>
     </row>
-    <row r="21" spans="1:73" s="33" customFormat="1" ht="10.5" customHeight="1">
+    <row r="21" spans="1:74" s="33" customFormat="1" ht="10.5" customHeight="1">
       <c r="A21" s="27"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -2562,15 +2612,15 @@
       <c r="BF21" s="35"/>
       <c r="BG21" s="34"/>
       <c r="BJ21" s="34"/>
-      <c r="BM21" s="35"/>
-      <c r="BN21" s="34"/>
-      <c r="BQ21" s="35"/>
-      <c r="BR21" s="34"/>
-      <c r="BS21" s="48"/>
+      <c r="BN21" s="35"/>
+      <c r="BO21" s="34"/>
+      <c r="BR21" s="35"/>
+      <c r="BS21" s="34"/>
       <c r="BT21" s="48"/>
-      <c r="BU21" s="35"/>
+      <c r="BU21" s="48"/>
+      <c r="BV21" s="35"/>
     </row>
-    <row r="22" spans="1:73" s="33" customFormat="1" ht="10.5" customHeight="1">
+    <row r="22" spans="1:74" s="33" customFormat="1" ht="10.5" customHeight="1">
       <c r="A22" s="27"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -2591,15 +2641,15 @@
       <c r="BF22" s="35"/>
       <c r="BG22" s="34"/>
       <c r="BJ22" s="34"/>
-      <c r="BM22" s="35"/>
-      <c r="BN22" s="34"/>
-      <c r="BQ22" s="35"/>
-      <c r="BR22" s="34"/>
-      <c r="BS22" s="48"/>
+      <c r="BN22" s="35"/>
+      <c r="BO22" s="34"/>
+      <c r="BR22" s="35"/>
+      <c r="BS22" s="34"/>
       <c r="BT22" s="48"/>
-      <c r="BU22" s="35"/>
+      <c r="BU22" s="48"/>
+      <c r="BV22" s="35"/>
     </row>
-    <row r="23" spans="1:73" s="33" customFormat="1" ht="10.5" customHeight="1">
+    <row r="23" spans="1:74" s="33" customFormat="1" ht="10.5" customHeight="1">
       <c r="A23" s="27"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -2620,15 +2670,15 @@
       <c r="BF23" s="35"/>
       <c r="BG23" s="34"/>
       <c r="BJ23" s="34"/>
-      <c r="BM23" s="35"/>
-      <c r="BN23" s="34"/>
-      <c r="BQ23" s="35"/>
-      <c r="BR23" s="34"/>
-      <c r="BS23" s="48"/>
+      <c r="BN23" s="35"/>
+      <c r="BO23" s="34"/>
+      <c r="BR23" s="35"/>
+      <c r="BS23" s="34"/>
       <c r="BT23" s="48"/>
-      <c r="BU23" s="35"/>
+      <c r="BU23" s="48"/>
+      <c r="BV23" s="35"/>
     </row>
-    <row r="24" spans="1:73" s="33" customFormat="1" ht="10.5" customHeight="1">
+    <row r="24" spans="1:74" s="33" customFormat="1" ht="10.5" customHeight="1">
       <c r="A24" s="28"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -2693,17 +2743,18 @@
       <c r="BJ24" s="36"/>
       <c r="BK24" s="37"/>
       <c r="BL24" s="37"/>
-      <c r="BM24" s="38"/>
-      <c r="BN24" s="36"/>
-      <c r="BO24" s="37"/>
+      <c r="BM24" s="37"/>
+      <c r="BN24" s="38"/>
+      <c r="BO24" s="36"/>
       <c r="BP24" s="37"/>
-      <c r="BQ24" s="38"/>
-      <c r="BR24" s="36"/>
-      <c r="BS24" s="37"/>
+      <c r="BQ24" s="37"/>
+      <c r="BR24" s="38"/>
+      <c r="BS24" s="36"/>
       <c r="BT24" s="37"/>
-      <c r="BU24" s="38"/>
+      <c r="BU24" s="37"/>
+      <c r="BV24" s="38"/>
     </row>
-    <row r="25" spans="1:73" ht="10.5" customHeight="1">
+    <row r="25" spans="1:74" ht="10.5" customHeight="1">
       <c r="A25" s="26"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -2769,14 +2820,22 @@
       <c r="BK25" s="17"/>
       <c r="BL25" s="17"/>
       <c r="BM25" s="17"/>
-      <c r="BN25" s="45"/>
+      <c r="BN25" s="17"/>
+      <c r="BO25" s="45"/>
     </row>
     <row r="33" spans="19:19">
       <c r="S33" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="BR5:BU6"/>
+    <mergeCell ref="BO5:BR6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="Y6:AD6"/>
+    <mergeCell ref="S6:X6"/>
+    <mergeCell ref="M5:AD5"/>
+    <mergeCell ref="AS5:BF6"/>
+    <mergeCell ref="BJ5:BN6"/>
+    <mergeCell ref="BS5:BV6"/>
     <mergeCell ref="A5:D6"/>
     <mergeCell ref="AE5:AR6"/>
     <mergeCell ref="A1:X2"/>
@@ -2792,13 +2851,6 @@
     <mergeCell ref="AQ1:AZ1"/>
     <mergeCell ref="BA1:BB2"/>
     <mergeCell ref="BG5:BI6"/>
-    <mergeCell ref="BJ5:BM6"/>
-    <mergeCell ref="BN5:BQ6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="Y6:AD6"/>
-    <mergeCell ref="S6:X6"/>
-    <mergeCell ref="M5:AD5"/>
-    <mergeCell ref="AS5:BF6"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
